--- a/ESPN sports website/IPL/Chennai Super Kings/Maheesh Theekshana.xlsx
+++ b/ESPN sports website/IPL/Chennai Super Kings/Maheesh Theekshana.xlsx
@@ -445,31 +445,31 @@
         <v>Maheesh Theekshana</v>
       </c>
       <c r="C2" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>175.00</v>
+        <v>0.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>May 04, 2022</v>
+        <v>May 12, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>RCB won by 13 runs</v>
+        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Maheesh Theekshana</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>0.00</v>
+        <v>175.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>May 12, 2022</v>
+        <v>May 04, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
+        <v>RCB won by 13 runs</v>
       </c>
     </row>
   </sheetData>
